--- a/MendotaLake/ParameterInputsMendota.xlsx
+++ b/MendotaLake/ParameterInputsMendota.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouyangzt/Documents/GLEON/SOS/MendotaLake/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15720" windowHeight="5865"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16880" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -425,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,17 +444,17 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -457,12 +465,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -473,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -484,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -495,7 +503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -506,7 +514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -517,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -528,12 +536,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -544,12 +552,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -560,7 +568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -571,7 +579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -582,7 +590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -593,7 +601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -604,18 +612,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -626,12 +634,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -642,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
